--- a/data/trans_orig/P14A21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCCEC40-13C6-4B78-9EC5-B3570985697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA2BD51-144B-4CD2-9BFE-A355CB3BEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB21BFBF-F972-4D56-B52D-30E13180795C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FECFE457-0247-4523-BA60-FF07B6592A31}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>57,91%</t>
+    <t>58,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>88,14%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>79,02%</t>
+    <t>79,3%</t>
   </si>
   <si>
     <t>93,51%</t>
@@ -108,16 +108,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,09%</t>
+    <t>41,64%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>12,05%</t>
@@ -126,7 +126,7 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>20,98%</t>
+    <t>20,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>88,05%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,19 +198,19 @@
     <t>88,35%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -219,73 +219,73 @@
     <t>11,65%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,97 +297,103 @@
     <t>86,15%</t>
   </si>
   <si>
-    <t>59,33%</t>
+    <t>59,6%</t>
   </si>
   <si>
     <t>87,29%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>77,59%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>40,67%</t>
+    <t>40,4%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>22,41%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>43,67%</t>
@@ -402,19 +408,19 @@
     <t>67,62%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>61,57%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>56,33%</t>
@@ -429,73 +435,73 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACFD15-20F1-4E32-B267-F2FE9B8F8800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4CFF83-28A3-4EB7-92BB-73EBEB1B6CE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1658,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC4B176-A0E1-4358-9B2A-929D8DF696A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DEA54-3656-4D69-A393-4C67EC2F81A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1818,7 +1824,7 @@
         <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1839,13 @@
         <v>2181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1848,13 +1854,13 @@
         <v>9116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -1863,13 +1869,13 @@
         <v>11297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1943,13 @@
         <v>15564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -1952,13 +1958,13 @@
         <v>82257</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -1967,13 +1973,13 @@
         <v>97821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1994,13 @@
         <v>7192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2003,13 +2009,13 @@
         <v>13017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -2018,13 +2024,13 @@
         <v>20209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2098,13 @@
         <v>4093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2107,13 +2113,13 @@
         <v>18744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2122,13 +2128,13 @@
         <v>22836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2149,13 @@
         <v>5280</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2158,13 +2164,13 @@
         <v>8976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -2173,13 +2179,13 @@
         <v>14257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>33222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -2262,13 +2268,13 @@
         <v>163590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>181</v>
@@ -2277,13 +2283,13 @@
         <v>196811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2304,13 @@
         <v>14653</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2313,13 +2319,13 @@
         <v>31109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2328,13 +2334,13 @@
         <v>45763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA2BD51-144B-4CD2-9BFE-A355CB3BEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DF1108F-23E4-4AB1-9F4B-46FC93CD68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FECFE457-0247-4523-BA60-FF07B6592A31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B186B4F-7C7F-45BF-8D19-08D14BF7F318}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>58,36%</t>
+    <t>58,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>88,14%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,64%</t>
+    <t>41,41%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>88,05%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,19 +198,19 @@
     <t>88,35%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -219,289 +219,283 @@
     <t>11,65%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población que recibe medicación o terapia por migrañas en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>59,6%</t>
+    <t>59,87%</t>
   </si>
   <si>
     <t>87,29%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>40,4%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>61,57%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4CFF83-28A3-4EB7-92BB-73EBEB1B6CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D8DCFF-E2DA-426F-9E1C-6FA4B4E58EAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1664,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DEA54-3656-4D69-A393-4C67EC2F81A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7962A4A9-E42F-4311-BD40-F9567E62CA44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2113,13 +2107,13 @@
         <v>18744</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2128,13 +2122,13 @@
         <v>22836</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2143,13 @@
         <v>5280</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2164,13 +2158,13 @@
         <v>8976</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -2179,13 +2173,13 @@
         <v>14257</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2247,13 @@
         <v>33222</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -2268,13 +2262,13 @@
         <v>163590</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>181</v>
@@ -2283,13 +2277,13 @@
         <v>196811</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2298,13 @@
         <v>14653</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2319,13 +2313,13 @@
         <v>31109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2334,13 +2328,13 @@
         <v>45763</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
